--- a/taxonomy.xlsx
+++ b/taxonomy.xlsx
@@ -485,7 +485,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>activites</t>
+          <t>activities</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">

--- a/taxonomy.xlsx
+++ b/taxonomy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R53"/>
+  <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,17 +680,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>dct:description</t>
+          <t>skos:prefLabel</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>A classification of activities in which data are produced</t>
+          <t>WEAVE</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Description of the controlled vocabulary</t>
+          <t>prefLabel of controlled vocabulary</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -712,17 +712,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>dct:description</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0002-9381-9693</t>
+          <t>A classification of activities in which data are produced</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>An ORCID ID of the vocabulary creator</t>
+          <t>Description of the controlled vocabulary</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -749,7 +749,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-4124-9040</t>
+          <t>https://orcid.org/0000-0002-9381-9693</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -776,17 +776,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>dct:rights</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://spdx.org/licenses/CC0-1.0</t>
+          <t>https://orcid.org/0000-0003-4124-9040</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>License under which the vocabulary is provided</t>
+          <t>An ORCID ID of the vocabulary creator</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -808,17 +808,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>pav:version</t>
+          <t>dct:rights</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.1.0</t>
+          <t>https://spdx.org/licenses/CC0-1.0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Vocabulary version</t>
+          <t>License under which the vocabulary is provided</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -840,17 +840,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>pav:createdOn</t>
+          <t>pav:version</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2017-09-01T12:00+02:00</t>
+          <t>0.1.0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Date when vocabulary was initially created</t>
+          <t>Vocabulary version</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -872,17 +872,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>pav:lastUpdatedOn</t>
+          <t>pav:createdOn</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021-10-01T12:00+02:00</t>
+          <t>2017-09-01T12:00+02:00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Date of the last vocabulary update</t>
+          <t>Date when vocabulary was initially created</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -904,11 +904,19 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Definition of terms (optionally properties)</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
+          <t>pav:lastUpdatedOn</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2021-10-01T12:00+02:00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Date of the last vocabulary update</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
@@ -928,59 +936,19 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Identifier</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@en</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>skos:altLabel(separator=";")</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>skos:broader(separator=",")</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>dct:contributor(separator=",")</t>
-        </is>
-      </c>
+          <t>Definition of terms (optionally properties)</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
@@ -992,23 +960,59 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>activities:Measurements</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Measurements</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+          <t>skos:prefLabel@en</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>skos:altLabel(separator=";")</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>skos:broader(separator=",")</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>dct:creator(separator=",")</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
@@ -1020,12 +1024,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>activities:Modeling</t>
+          <t>activities:Measurements</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Modeling</t>
+          <t>Measurements</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1048,12 +1052,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>activities:Validation</t>
+          <t>activities:Modeling</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Validation</t>
+          <t>Modeling</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1076,22 +1080,18 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>activities:Fieldexperiment</t>
+          <t>activities:Validation</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Field experiment</t>
+          <t>Validation</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>activities:Measurements</t>
-        </is>
-      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
@@ -1108,12 +1108,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>activities:Long-termmonitoring</t>
+          <t>activities:Fieldexperiment</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Long-term monitoring</t>
+          <t>Field experiment</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1140,12 +1140,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>activities:Laboratorytest</t>
+          <t>activities:Long-termmonitoring</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Laboratory test</t>
+          <t>Long-term monitoring</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1172,12 +1172,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>activities:WindTunneltest</t>
+          <t>activities:Laboratorytest</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Wind Tunnel test</t>
+          <t>Laboratory test</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1204,12 +1204,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>activities:Fieldtest</t>
+          <t>activities:WindTunneltest</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Field test</t>
+          <t>Wind Tunnel test</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1236,12 +1236,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>activities:Fullscaletest</t>
+          <t>activities:Fieldtest</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Full scale test</t>
+          <t>Field test</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1268,12 +1268,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>activities:ConditionMonitoring</t>
+          <t>activities:Fullscaletest</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Condition Monitoring</t>
+          <t>Full scale test</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1300,12 +1300,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>activities:Fatiguetests</t>
+          <t>activities:ConditionMonitoring</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Fatigue tests</t>
+          <t>Condition Monitoring</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1332,12 +1332,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>activities:Statictests</t>
+          <t>activities:Fatiguetests</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Static tests</t>
+          <t>Fatigue tests</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1364,12 +1364,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>activities:Questionnaires</t>
+          <t>activities:Statictests</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Questionnaires</t>
+          <t>Static tests</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1396,12 +1396,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>activities:Interviews</t>
+          <t>activities:Questionnaires</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Interviews</t>
+          <t>Questionnaires</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1428,12 +1428,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>activities:Manufacturing</t>
+          <t>activities:Interviews</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>Interviews</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>activities:Validation</t>
+          <t>activities:Measurements</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -1460,12 +1460,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>activities:Reliabilityandtesting</t>
+          <t>activities:Manufacturing</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Reliability and testing</t>
+          <t>Manufacturing</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1492,12 +1492,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>activities:Certification</t>
+          <t>activities:Reliabilityandtesting</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Certification</t>
+          <t>Reliability and testing</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1524,12 +1524,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>activities:Uncertaintyanalysis</t>
+          <t>activities:Certification</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Uncertainty analysis</t>
+          <t>Certification</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1556,14 +1556,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>activities:</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr"/>
+          <t>activities:Uncertaintyanalysis</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Uncertainty analysis</t>
+        </is>
+      </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>activities:Validation</t>
+        </is>
+      </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
@@ -1985,6 +1993,30 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
     </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>activities:</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
